--- a/change_member_dataXX/change_member_data.xlsx
+++ b/change_member_dataXX/change_member_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\ウィング関連資料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\wingAC\change_member_dataXX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9ED888-0FB7-4368-8070-35CEA4552F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B33428-B1AB-44A0-A860-2C3533A0FD9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{E6F67D47-4712-47AB-B825-D2EF05BC3D8E}"/>
+    <workbookView xWindow="1020" yWindow="-120" windowWidth="27900" windowHeight="16440" xr2:uid="{E6F67D47-4712-47AB-B825-D2EF05BC3D8E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -339,20 +339,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
@@ -360,6 +348,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -685,163 +685,163 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2" t="s">
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
     </row>
     <row r="2" spans="1:13" ht="54.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="7"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:13" ht="54.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="4"/>
-      <c r="C5" s="5" t="s">
+      <c r="A5" s="3"/>
+      <c r="C5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8" t="s">
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="D7" s="5" t="s">
+      <c r="B7" s="9"/>
+      <c r="D7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="9"/>
     </row>
     <row r="8" spans="1:13" ht="54.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="5"/>
-      <c r="B8" s="7"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="7"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="9"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="9"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="7"/>
-      <c r="E10" s="5" t="s">
+      <c r="B10" s="8"/>
+      <c r="C10" s="9"/>
+      <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="7"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="9"/>
     </row>
     <row r="11" spans="1:13" ht="54.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="7"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="9"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="9"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="3" t="s">
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="7"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="9"/>
     </row>
     <row r="14" spans="1:13" ht="54.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="4"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="7"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="3"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="9"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
@@ -854,10 +854,10 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="5" t="s">
         <v>16</v>
       </c>
     </row>
@@ -867,7 +867,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C23" t="s">
@@ -886,6 +886,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="C4:F4"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="F13:M13"/>
@@ -898,16 +908,6 @@
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="E10:M10"/>
     <mergeCell ref="E11:M11"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:F2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
